--- a/src/test/resources/registrationdetails.xlsx
+++ b/src/test/resources/registrationdetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Partha\eclipse-workspace\com.codemind.B14\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D7BD49-3DB1-4BDD-A56B-E4819E9B6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C7312-EBD0-4832-9225-0498BF8761B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>firstname</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Maharastra</t>
   </si>
   <si>
-    <t>bapabou123</t>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,16 +484,16 @@
         <v>17</v>
       </c>
       <c r="H2">
-        <v>411014</v>
+        <v>755014</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>1234</v>
-      </c>
-      <c r="K2">
-        <v>1234</v>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
